--- a/arbeitszeit/Zeiterfassung_Gruppe05_Mattmann_Carole.xlsx
+++ b/arbeitszeit/Zeiterfassung_Gruppe05_Mattmann_Carole.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CaroleM\Documents\GitHub\cip\arbeitszeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usera\cip\arbeitszeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76631D50-DD15-49DB-ACC4-504B160684A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3225" windowWidth="16920" windowHeight="10575" xr2:uid="{D08F1E28-3128-4FC2-A3B4-4609B8070E4C}"/>
+    <workbookView xWindow="5400" yWindow="3230" windowWidth="16920" windowHeight="10580"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,16 +85,16 @@
     <t>Tableau Prep anschauen, Crawler finalisieren und dokumentieren</t>
   </si>
   <si>
-    <t xml:space="preserve">Gruppendiskussion </t>
-  </si>
-  <si>
     <t>Bericht reviewen und Gruppencall</t>
+  </si>
+  <si>
+    <t>Gruppendiskussion, Präsi reviewen und Ablage aufräumen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,24 +447,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AF376F-E754-476B-872A-23CF0526EAB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -476,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43895</v>
       </c>
@@ -487,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43896</v>
       </c>
@@ -498,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43897</v>
       </c>
@@ -509,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43898</v>
       </c>
@@ -520,7 +519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43900</v>
       </c>
@@ -531,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -542,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -553,7 +552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43906</v>
       </c>
@@ -564,7 +563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43907</v>
       </c>
@@ -575,7 +574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -586,7 +585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -597,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
@@ -608,7 +607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -619,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43839</v>
       </c>
@@ -627,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43934</v>
       </c>
@@ -638,10 +637,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>

--- a/arbeitszeit/Zeiterfassung_Gruppe05_Mattmann_Carole.xlsx
+++ b/arbeitszeit/Zeiterfassung_Gruppe05_Mattmann_Carole.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usera\cip\arbeitszeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CaroleM\Documents\GitHub\cip\arbeitszeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC715A-5DF8-49C5-8066-E0EC55D54537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3230" windowWidth="16920" windowHeight="10580"/>
+    <workbookView xWindow="5400" yWindow="3225" windowWidth="16920" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Zeit CIP Projekt</t>
   </si>
@@ -89,12 +90,15 @@
   </si>
   <si>
     <t>Gruppendiskussion, Präsi reviewen und Ablage aufräumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM &amp; Video finalisieren </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,24 +451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -475,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43895</v>
       </c>
@@ -486,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43896</v>
       </c>
@@ -497,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43897</v>
       </c>
@@ -508,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43898</v>
       </c>
@@ -519,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43900</v>
       </c>
@@ -530,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -541,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -552,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43906</v>
       </c>
@@ -563,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43907</v>
       </c>
@@ -574,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -585,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -596,7 +600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
@@ -607,7 +611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -618,7 +622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43839</v>
       </c>
@@ -629,7 +633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43934</v>
       </c>
@@ -640,13 +644,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B32">
-        <f>SUM(B4:B30)</f>
-        <v>35</v>
+      <c r="B22">
+        <f>SUM(B4:B21)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
